--- a/corona.xlsx
+++ b/corona.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676E0BB-D622-48AB-84B1-5215F12133E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE23485-E41F-46D3-A931-CE1C12501F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
+    <workbookView xWindow="-220" yWindow="0" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,7 +414,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1391,6 +1390,50 @@
         <v>31</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B55">
+        <v>161</v>
+      </c>
+      <c r="C55">
+        <v>351</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>41</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="3">B55-B54</f>
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="4">C55-C54</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B56">
+        <v>177</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56" si="5">B56-B55</f>
+        <v>16</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56" si="6">C56-C55</f>
+        <v>-351</v>
+      </c>
+    </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H57" s="2"/>
     </row>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE23485-E41F-46D3-A931-CE1C12501F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711B9E9-B5AF-413A-8CD9-754834B2370D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-220" yWindow="0" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9475EA1A-E4F1-4D00-85AC-F11623C5E008}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,20 +1422,91 @@
       <c r="B56">
         <v>177</v>
       </c>
+      <c r="C56">
+        <v>398</v>
+      </c>
       <c r="D56">
         <v>16</v>
       </c>
+      <c r="E56">
+        <v>47</v>
+      </c>
       <c r="G56">
-        <f t="shared" ref="G56" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G59" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56" si="6">C56-C55</f>
-        <v>-351</v>
+        <f t="shared" ref="H56:H58" si="6">C56-C55</f>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="2"/>
+      <c r="A57" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B57">
+        <v>194</v>
+      </c>
+      <c r="C57">
+        <v>434</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B58">
+        <v>213</v>
+      </c>
+      <c r="C58">
+        <v>490</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B59">
+        <v>236</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711B9E9-B5AF-413A-8CD9-754834B2370D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7385D-71B6-4344-A0D2-FE174ED4CB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="0" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
+    <workbookView xWindow="30410" yWindow="2490" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,11 +1432,11 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G59" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G64" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H58" si="6">C56-C55</f>
+        <f t="shared" ref="H56:H63" si="6">C56-C55</f>
         <v>47</v>
       </c>
     </row>
@@ -1497,16 +1497,113 @@
       <c r="B59">
         <v>236</v>
       </c>
+      <c r="C59">
+        <v>532</v>
+      </c>
       <c r="D59">
         <v>23</v>
+      </c>
+      <c r="E59">
+        <v>42</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B60">
+        <v>246</v>
+      </c>
+      <c r="C60">
+        <v>580</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B61">
+        <v>263</v>
+      </c>
+      <c r="C61">
+        <v>633</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>53</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B62">
+        <v>300</v>
+      </c>
+      <c r="C62">
+        <v>698</v>
+      </c>
+      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>65</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D63" s="3"/>
+      <c r="A63" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B63">
+        <v>316</v>
+      </c>
+      <c r="D63" s="3">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7385D-71B6-4344-A0D2-FE174ED4CB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017581C-F455-40C2-8F47-FB5ED98B4714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30410" yWindow="2490" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
+    <workbookView xWindow="-2140" yWindow="1090" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +415,7 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,7 +1433,7 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G64" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G63" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
@@ -1591,18 +1592,28 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>43970</v>
       </c>
       <c r="B63">
         <v>316</v>
       </c>
+      <c r="C63">
+        <v>789</v>
+      </c>
       <c r="D63" s="3">
         <v>16</v>
+      </c>
+      <c r="E63" s="3">
+        <v>91</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
         <v>16</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017581C-F455-40C2-8F47-FB5ED98B4714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC6CE4-DC42-4745-973E-2018F1A0A7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2140" yWindow="1090" windowWidth="38620" windowHeight="21000" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9475EA1A-E4F1-4D00-85AC-F11623C5E008}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1433,11 +1433,11 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G63" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G67" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H63" si="6">C56-C55</f>
+        <f t="shared" ref="H56:H66" si="6">C56-C55</f>
         <v>47</v>
       </c>
     </row>
@@ -1614,6 +1614,96 @@
       <c r="H63">
         <f t="shared" si="6"/>
         <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B64">
+        <v>330</v>
+      </c>
+      <c r="C64">
+        <v>834</v>
+      </c>
+      <c r="D64" s="3">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B65">
+        <v>355</v>
+      </c>
+      <c r="C65">
+        <v>967</v>
+      </c>
+      <c r="D65" s="3">
+        <v>25</v>
+      </c>
+      <c r="E65" s="3">
+        <v>133</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B66">
+        <v>373</v>
+      </c>
+      <c r="C66">
+        <v>1083</v>
+      </c>
+      <c r="D66" s="3">
+        <v>18</v>
+      </c>
+      <c r="E66" s="3">
+        <v>116</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>43974</v>
+      </c>
+      <c r="B67">
+        <v>390</v>
+      </c>
+      <c r="D67" s="3">
+        <v>17</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC6CE4-DC42-4745-973E-2018F1A0A7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79746F60-B06A-4978-8D22-636CF312F2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9475EA1A-E4F1-4D00-85AC-F11623C5E008}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1433,11 +1433,11 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G67" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G83" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H66" si="6">C56-C55</f>
+        <f t="shared" ref="H56:H83" si="6">C56-C55</f>
         <v>47</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>43968</v>
       </c>
       <c r="B61">
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>43969</v>
       </c>
       <c r="B62">
@@ -1641,7 +1641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>43972</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>43973</v>
       </c>
@@ -1691,20 +1691,428 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>43974</v>
       </c>
       <c r="B67">
         <v>390</v>
       </c>
+      <c r="C67">
+        <v>1137</v>
+      </c>
       <c r="D67" s="3">
         <v>17</v>
       </c>
+      <c r="E67">
+        <v>54</v>
+      </c>
       <c r="G67">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B68">
+        <v>406</v>
+      </c>
+      <c r="C68">
+        <v>1214</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>77</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B69">
+        <v>411</v>
+      </c>
+      <c r="C69">
+        <v>1271</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>57</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B70">
+        <v>422</v>
+      </c>
+      <c r="C70">
+        <v>1310</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B71">
+        <v>470</v>
+      </c>
+      <c r="C71">
+        <v>1410</v>
+      </c>
+      <c r="D71">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B72">
+        <v>498</v>
+      </c>
+      <c r="C72">
+        <v>1539</v>
+      </c>
+      <c r="D72">
+        <v>28</v>
+      </c>
+      <c r="E72">
+        <v>129</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B73">
+        <v>531</v>
+      </c>
+      <c r="C73">
+        <v>1701</v>
+      </c>
+      <c r="D73">
+        <v>33</v>
+      </c>
+      <c r="E73">
+        <v>162</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B74">
+        <v>580</v>
+      </c>
+      <c r="C74">
+        <v>1734</v>
+      </c>
+      <c r="D74">
+        <v>49</v>
+      </c>
+      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B75">
+        <v>600</v>
+      </c>
+      <c r="C75">
+        <v>1841</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>107</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B76">
+        <v>608</v>
+      </c>
+      <c r="C76">
+        <v>1875</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>34</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B77">
+        <v>641</v>
+      </c>
+      <c r="C77">
+        <v>1985</v>
+      </c>
+      <c r="D77">
+        <v>33</v>
+      </c>
+      <c r="E77">
+        <v>110</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B78">
+        <v>666</v>
+      </c>
+      <c r="C78">
+        <v>2028</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>43</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B79">
+        <v>694</v>
+      </c>
+      <c r="C79">
+        <v>2167</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>139</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B80">
+        <v>722</v>
+      </c>
+      <c r="C80">
+        <v>2297</v>
+      </c>
+      <c r="D80">
+        <v>28</v>
+      </c>
+      <c r="E80">
+        <v>130</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B81">
+        <v>756</v>
+      </c>
+      <c r="C81">
+        <v>2361</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+      <c r="E81">
+        <v>64</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B82">
+        <v>788</v>
+      </c>
+      <c r="C82">
+        <v>2452</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>91</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B83">
+        <v>801</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>-2452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/corona.xlsx
+++ b/corona.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Desktop\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79746F60-B06A-4978-8D22-636CF312F2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EED05-3151-4D22-9A20-973DE2CB60B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C98B353-EDBB-48FF-AC02-0102F8101F02}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9475EA1A-E4F1-4D00-85AC-F11623C5E008}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1433,11 +1433,11 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G83" si="5">B56-B55</f>
+        <f t="shared" ref="G56:G92" si="5">B56-B55</f>
         <v>16</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H83" si="6">C56-C55</f>
+        <f t="shared" ref="H56:H91" si="6">C56-C55</f>
         <v>47</v>
       </c>
     </row>
@@ -2099,20 +2099,238 @@
       <c r="B83">
         <v>801</v>
       </c>
+      <c r="C83">
+        <v>2545</v>
+      </c>
       <c r="D83">
         <v>13</v>
       </c>
+      <c r="E83">
+        <v>93</v>
+      </c>
       <c r="G83">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H83">
         <f t="shared" si="6"/>
-        <v>-2452</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B84">
+        <v>833</v>
+      </c>
+      <c r="C84">
+        <v>2612</v>
+      </c>
+      <c r="D84">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>67</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B85">
+        <v>880</v>
+      </c>
+      <c r="C85">
+        <v>2706</v>
+      </c>
+      <c r="D85">
+        <v>47</v>
+      </c>
+      <c r="E85">
+        <v>94</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B86">
+        <v>910</v>
+      </c>
+      <c r="C86">
+        <v>2823</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>117</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B87">
+        <v>921</v>
+      </c>
+      <c r="C87">
+        <v>2852</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>29</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B88">
+        <v>966</v>
+      </c>
+      <c r="C88">
+        <v>2898</v>
+      </c>
+      <c r="D88">
+        <v>45</v>
+      </c>
+      <c r="E88">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B89">
+        <v>975</v>
+      </c>
+      <c r="C89">
+        <v>2946</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>48</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B90">
+        <v>991</v>
+      </c>
+      <c r="C90">
+        <v>2998</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>52</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B91">
+        <v>1057</v>
+      </c>
+      <c r="C91">
+        <v>3079</v>
+      </c>
+      <c r="D91">
+        <v>66</v>
+      </c>
+      <c r="E91">
+        <v>81</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B92">
+        <v>1079</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
